--- a/DAILY TASK.xlsx
+++ b/DAILY TASK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dineth Pansilu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687AF7F-1109-44B3-91F0-48F95909AAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D5AAF-C43C-4F73-ABFB-DF607CF92642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F12BF89-DE25-4A07-BEA3-7A689E26D7B6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MORNING MSG</t>
   </si>
@@ -72,13 +72,19 @@
     <t>ROSTER</t>
   </si>
   <si>
-    <t>SYSTEM &amp; CREDIT BANKING</t>
-  </si>
-  <si>
     <t>CREDIT BANKING WA UPLOAD</t>
   </si>
   <si>
     <t>CASHIER SALE BOOK FILL</t>
+  </si>
+  <si>
+    <t>SYSTEM BANKING</t>
+  </si>
+  <si>
+    <t>CREDIT BANKING</t>
+  </si>
+  <si>
+    <t>COUNTER PROMOTION PRINT</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DF1352-44BF-4DE3-A2B5-4CE99077D471}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,67 +474,77 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
